--- a/89_Features_Definition.xlsx
+++ b/89_Features_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikimaru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikimaru\Desktop\Ultra_folder\Thesis\Fire_Detection_2022_Material-main\Fire_Detection_2022_Material-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C881F-939C-4D8E-863C-C3B8291A96B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E6635-ABFE-4151-80B3-AAD300AD6A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,509 +82,511 @@
     <t>d_varRad</t>
   </si>
   <si>
-    <t>The standardization of vector radius (Zr(ith)) 
+    <t>d_varCoh</t>
+  </si>
+  <si>
+    <t>dCos</t>
+  </si>
+  <si>
+    <t>Average of Cosine value of vectors found in frame ith</t>
+  </si>
+  <si>
+    <t>dSin</t>
+  </si>
+  <si>
+    <t>Average of Sine value of vectors found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5Radius_v0</t>
+  </si>
+  <si>
+    <t>ia5Radius_v1</t>
+  </si>
+  <si>
+    <t>ia5Radius_v2</t>
+  </si>
+  <si>
+    <t>ia5Radius_v3</t>
+  </si>
+  <si>
+    <t>ia5Radius_v4</t>
+  </si>
+  <si>
+    <t>ia5Radius_f0</t>
+  </si>
+  <si>
+    <t>ia5Radius_f1</t>
+  </si>
+  <si>
+    <t>ia5Radius_f2</t>
+  </si>
+  <si>
+    <t>ia5Radius_f3</t>
+  </si>
+  <si>
+    <t>ia5Radius_f4</t>
+  </si>
+  <si>
+    <t>da5Radius_%0</t>
+  </si>
+  <si>
+    <t>% frequency of 1st radius value in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Radius_%1</t>
+  </si>
+  <si>
+    <t>% frequency of 2nd radius value in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Radius_%2</t>
+  </si>
+  <si>
+    <t>% frequency of 3rd radius value in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Radius_%3</t>
+  </si>
+  <si>
+    <t>% frequency of 4th radius value in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Radius_%4</t>
+  </si>
+  <si>
+    <t>% frequency of 5th radius value in top 5, where sum of da5Radius_%j, j = 0, 1, 2, 3, 4, is equal to 100, found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Degree_v0</t>
+  </si>
+  <si>
+    <t>da5Degree_v1</t>
+  </si>
+  <si>
+    <t>da5Degree_v2</t>
+  </si>
+  <si>
+    <t>da5Degree_v3</t>
+  </si>
+  <si>
+    <t>da5Degree_v4</t>
+  </si>
+  <si>
+    <t>da5Degree_f0</t>
+  </si>
+  <si>
+    <t>da5Degree_f1</t>
+  </si>
+  <si>
+    <t>da5Degree_f2</t>
+  </si>
+  <si>
+    <t>da5Degree_f3</t>
+  </si>
+  <si>
+    <t>da5Degree_f4</t>
+  </si>
+  <si>
+    <t>da5Degree_%0</t>
+  </si>
+  <si>
+    <t>% frequency of 1st high degree in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Degree_%1</t>
+  </si>
+  <si>
+    <t>% frequency of 2nd high degree in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Degree_%2</t>
+  </si>
+  <si>
+    <t>% frequency of 3rd high degree in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Degree_%3</t>
+  </si>
+  <si>
+    <t>% frequency of 4th high degree in top 5 found in frame ith</t>
+  </si>
+  <si>
+    <t>da5Degree_%4</t>
+  </si>
+  <si>
+    <t>% frequency of 5th high degree in top 5, where sum of da5Degree_% j, j = 0, 1, 2, 3, 4, is equal to 100 found in frame ith</t>
+  </si>
+  <si>
+    <t>iRGBTotal</t>
+  </si>
+  <si>
+    <t>Amount of pursued pixels (collected from SBs) found in frame ith</t>
+  </si>
+  <si>
+    <t>iRMean</t>
+  </si>
+  <si>
+    <t>Average of red amount calculated from pursued pixels found in frame ith</t>
+  </si>
+  <si>
+    <t>iGMean</t>
+  </si>
+  <si>
+    <t>Average of green amount calculated from pursued pixels found in frame ith</t>
+  </si>
+  <si>
+    <t>iBMean</t>
+  </si>
+  <si>
+    <t>Average of blue amount calculated from pursued pixels found in frame ith</t>
+  </si>
+  <si>
+    <t>d_luminance</t>
+  </si>
+  <si>
+    <t>Average of luminance d_luminance = 0.299*iRMean + 0.587*iGMean + 0.114*iBMean found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5R_v0</t>
+  </si>
+  <si>
+    <t>ia5R_v1</t>
+  </si>
+  <si>
+    <t>ia5R_v2</t>
+  </si>
+  <si>
+    <t>ia5R_v3</t>
+  </si>
+  <si>
+    <t>ia5R_v4</t>
+  </si>
+  <si>
+    <t>ia5R_f0</t>
+  </si>
+  <si>
+    <t>ia5R_f1</t>
+  </si>
+  <si>
+    <t>ia5R_f2</t>
+  </si>
+  <si>
+    <t>ia5R_f3</t>
+  </si>
+  <si>
+    <t>ia5R_f4</t>
+  </si>
+  <si>
+    <t>ia5R_%0</t>
+  </si>
+  <si>
+    <t>% frequency of 1st high value of red found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5R_%1</t>
+  </si>
+  <si>
+    <t>% frequency of 2nd high value of red found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5R_%2</t>
+  </si>
+  <si>
+    <t>% frequency of 3rd high value of red found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5R_%3</t>
+  </si>
+  <si>
+    <t>% frequency of 4th high value of red found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5R_%4</t>
+  </si>
+  <si>
+    <t>% frequency of 5th high value of red found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5G_v0</t>
+  </si>
+  <si>
+    <t>ia5G_v1</t>
+  </si>
+  <si>
+    <t>ia5G_v2</t>
+  </si>
+  <si>
+    <t>ia5G_v3</t>
+  </si>
+  <si>
+    <t>ia5G_v4</t>
+  </si>
+  <si>
+    <t>ia5G_f0</t>
+  </si>
+  <si>
+    <t>ia5G_f1</t>
+  </si>
+  <si>
+    <t>ia5G_f2</t>
+  </si>
+  <si>
+    <t>ia5G_f3</t>
+  </si>
+  <si>
+    <t>ia5G_f4</t>
+  </si>
+  <si>
+    <t>ia5G_%0</t>
+  </si>
+  <si>
+    <t>% frequency 1st high value of green found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5G_%1</t>
+  </si>
+  <si>
+    <t>% frequency of 2nd high value of green found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5G_%2</t>
+  </si>
+  <si>
+    <t>% frequency of 3rd high value of green found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5G_%3</t>
+  </si>
+  <si>
+    <t>% frequency of 4th high value of green found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5G_%4</t>
+  </si>
+  <si>
+    <t>% frequency of 5th high value of green found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5B_v0</t>
+  </si>
+  <si>
+    <t>ia5B_v1</t>
+  </si>
+  <si>
+    <t>ia5B_v2</t>
+  </si>
+  <si>
+    <t>ia5B_v3</t>
+  </si>
+  <si>
+    <t>ia5B_v4</t>
+  </si>
+  <si>
+    <t>ia5B_f0</t>
+  </si>
+  <si>
+    <t>ia5B_f1</t>
+  </si>
+  <si>
+    <t>ia5B_f2</t>
+  </si>
+  <si>
+    <t>ia5B_f3</t>
+  </si>
+  <si>
+    <t>ia5B_f4</t>
+  </si>
+  <si>
+    <t>ia5B_%0</t>
+  </si>
+  <si>
+    <t>% frequency of 1st high value of blue found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5B_%1</t>
+  </si>
+  <si>
+    <t>% frequency of 2nd high value of blue found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5B_%2</t>
+  </si>
+  <si>
+    <t>% frequency of 3rd high value of blue found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5B_%3</t>
+  </si>
+  <si>
+    <t>% frequency of 4th high value of blue found in frame ith</t>
+  </si>
+  <si>
+    <t>ia5B_%4</t>
+  </si>
+  <si>
+    <t>% frequency of 5th high value of blue found in frame ith</t>
+  </si>
+  <si>
+    <t>1st highest radius value frequently max(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>2nd highest radius value frequently max(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>3rd highest radius value frequently max(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>4th highest radius value frequently max(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>5th highest radius value frequently max(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 1st high radius value frequently mode(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 2nd high radius value frequently mode(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 3rd high radius value frequently mode(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 4th high radius value frequently mode(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 5th high radius value frequently mode(TOI(Vr)) found in frame ith</t>
+  </si>
+  <si>
+    <t>1st high degree of angle of vectors, frequently max(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>2nd high degree of angle of vectors, frequently max(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>3rd high degree of angle of vectors, frequently max(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>4th high degree of angle of vectors, frequently max(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>5th high degree of angle of vectors, frequently max(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 1st high degree value mode(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 2nd high degree value mode(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 3rd high degree value mode(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 4th high degree value mode(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 5th high degree value mode(TOI(Va)) found in frame ith</t>
+  </si>
+  <si>
+    <t>1st high value of red max(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>2nd high value of red max(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>3rd high value of red max(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>4th high value of red max(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>5th high value of red max(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 1st high value of red mode(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 2nd high value of red mode(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 3rd high value of red mode(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 4th high value of red mode(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 5th high value of red mode(TOI(R)) found in frame ith</t>
+  </si>
+  <si>
+    <t>1st high value of green max(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>2nd high value of green max(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>3rd high value of green max(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>4th high value of green max(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>5th high value of green max(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 1st high value of green mode(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 2nd high value of green mode(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 3rd high value of green mode(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 4th high value of green mode(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 5th high value of green mode(TOI(G)) found in frame ith</t>
+  </si>
+  <si>
+    <t>1st high value of blue max(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>2nd high value of blue max(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>3rd high value of blue max(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>4th high value of blue max(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>5th high value of blue max(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 1st high value of blue mode(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 2nd high value of blue mode(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 3rd high value of blue mode(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 4th high value of blue mode(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t>frequency of 5th high value of blue mode(TOI(B)) found in frame ith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The standardization of motion coherence (Zc(ith))
+is calculated by 
+d_varCoh(ith) = (dCohIndex(ith) - d_AvgCohN) / d_StdCohN, where the d_AvgCohN was calculated from the prior 30 frames (N=30) found before 360 recorded frames in a series of dataset, and d_StdCohN is standard deviation (σ) of motion coherence index of samples (N = 30 samples)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The standardization of vector radius (Zr(ith))
 is calculated by 
 d_varRad(ith) = (dRadius(ith) - d_AvgRadiusN) / d_StdRadN, where the d_AvgRadiusN was calculated from the prior 30 frames (N=30) found before 360 recorded frames in a series of dataset, and d_StdRadN is standard deviation (σ) of radius of samples (N = 30 samples)</t>
-  </si>
-  <si>
-    <t>d_varCoh</t>
-  </si>
-  <si>
-    <t>The standardization of motion coherence (Zc(ith))
-is calculated by 
-d_varCoh(ith) = (dCohIndex(ith) - d_AvgCohN) / d_StdCohN, where the d_AvgCohN was calculated from the prior 30 frames (N=30) found before 360 recorded frames in a series of dataset, and d_StdCohN is standard deviation (σ) of motion coherence index of samples (N = 30 samples)</t>
-  </si>
-  <si>
-    <t>dCos</t>
-  </si>
-  <si>
-    <t>Average of Cosine value of vectors found in frame ith</t>
-  </si>
-  <si>
-    <t>dSin</t>
-  </si>
-  <si>
-    <t>Average of Sine value of vectors found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_v0</t>
-  </si>
-  <si>
-    <t>1st highest radius value frequently max(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_v1</t>
-  </si>
-  <si>
-    <t>2nd highest radius value frequently max(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_v2</t>
-  </si>
-  <si>
-    <t>3rd highest radius value frequently max(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_v3</t>
-  </si>
-  <si>
-    <t>4th highest radius value frequently max(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_v4</t>
-  </si>
-  <si>
-    <t>5th highest radius value frequently max(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_f0</t>
-  </si>
-  <si>
-    <t>frequency of 1st high radius value frequently mode(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_f1</t>
-  </si>
-  <si>
-    <t>frequency of 2nd high radius value frequently mode(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_f2</t>
-  </si>
-  <si>
-    <t>frequency of 3rd high radius value frequently mode(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_f3</t>
-  </si>
-  <si>
-    <t>frequency of 4th high radius value frequently mode(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5Radius_f4</t>
-  </si>
-  <si>
-    <t>frequency of 5th high radius value frequently mode(ROI(Vr)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Radius_%0</t>
-  </si>
-  <si>
-    <t>% frequency of 1st radius value in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Radius_%1</t>
-  </si>
-  <si>
-    <t>% frequency of 2nd radius value in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Radius_%2</t>
-  </si>
-  <si>
-    <t>% frequency of 3rd radius value in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Radius_%3</t>
-  </si>
-  <si>
-    <t>% frequency of 4th radius value in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Radius_%4</t>
-  </si>
-  <si>
-    <t>% frequency of 5th radius value in top 5, where sum of da5Radius_%j, j = 0, 1, 2, 3, 4, is equal to 100, found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_v0</t>
-  </si>
-  <si>
-    <t>1st high degree of angle of vectors, frequently max(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_v1</t>
-  </si>
-  <si>
-    <t>2nd high degree of angle of vectors, frequently max(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_v2</t>
-  </si>
-  <si>
-    <t>3rd high degree of angle of vectors, frequently max(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_v3</t>
-  </si>
-  <si>
-    <t>4th high degree of angle of vectors, frequently max(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_v4</t>
-  </si>
-  <si>
-    <t>5th high degree of angle of vectors, frequently max(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_f0</t>
-  </si>
-  <si>
-    <t>frequency of 1st high degree value mode(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_f1</t>
-  </si>
-  <si>
-    <t>frequency of 2nd high degree value mode(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_f2</t>
-  </si>
-  <si>
-    <t>frequency of 3rd high degree value mode(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_f3</t>
-  </si>
-  <si>
-    <t>frequency of 4th high degree value mode(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_f4</t>
-  </si>
-  <si>
-    <t>frequency of 5th high degree value mode(ROI(Va)) found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_%0</t>
-  </si>
-  <si>
-    <t>% frequency of 1st high degree in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_%1</t>
-  </si>
-  <si>
-    <t>% frequency of 2nd high degree in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_%2</t>
-  </si>
-  <si>
-    <t>% frequency of 3rd high degree in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_%3</t>
-  </si>
-  <si>
-    <t>% frequency of 4th high degree in top 5 found in frame ith</t>
-  </si>
-  <si>
-    <t>da5Degree_%4</t>
-  </si>
-  <si>
-    <t>% frequency of 5th high degree in top 5, where sum of da5Degree_% j, j = 0, 1, 2, 3, 4, is equal to 100 found in frame ith</t>
-  </si>
-  <si>
-    <t>iRGBTotal</t>
-  </si>
-  <si>
-    <t>Amount of pursued pixels (collected from SBs) found in frame ith</t>
-  </si>
-  <si>
-    <t>iRMean</t>
-  </si>
-  <si>
-    <t>Average of red amount calculated from pursued pixels found in frame ith</t>
-  </si>
-  <si>
-    <t>iGMean</t>
-  </si>
-  <si>
-    <t>Average of green amount calculated from pursued pixels found in frame ith</t>
-  </si>
-  <si>
-    <t>iBMean</t>
-  </si>
-  <si>
-    <t>Average of blue amount calculated from pursued pixels found in frame ith</t>
-  </si>
-  <si>
-    <t>d_luminance</t>
-  </si>
-  <si>
-    <t>Average of luminance d_luminance = 0.299*iRMean + 0.587*iGMean + 0.114*iBMean found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_v0</t>
-  </si>
-  <si>
-    <t>1st high value of red max(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_v1</t>
-  </si>
-  <si>
-    <t>2nd high value of red max(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_v2</t>
-  </si>
-  <si>
-    <t>3rd high value of red max(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_v3</t>
-  </si>
-  <si>
-    <t>4th high value of red max(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_v4</t>
-  </si>
-  <si>
-    <t>5th high value of red max(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_f0</t>
-  </si>
-  <si>
-    <t>frequency of 1st high value of red mode(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_f1</t>
-  </si>
-  <si>
-    <t>frequency of 2nd high value of red mode(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_f2</t>
-  </si>
-  <si>
-    <t>frequency of 3rd high value of red mode(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_f3</t>
-  </si>
-  <si>
-    <t>frequency of 4th high value of red mode(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_f4</t>
-  </si>
-  <si>
-    <t>frequency of 5th high value of red mode(ROI(R)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_%0</t>
-  </si>
-  <si>
-    <t>% frequency of 1st high value of red found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_%1</t>
-  </si>
-  <si>
-    <t>% frequency of 2nd high value of red found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_%2</t>
-  </si>
-  <si>
-    <t>% frequency of 3rd high value of red found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_%3</t>
-  </si>
-  <si>
-    <t>% frequency of 4th high value of red found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5R_%4</t>
-  </si>
-  <si>
-    <t>% frequency of 5th high value of red found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_v0</t>
-  </si>
-  <si>
-    <t>1st high value of green max(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_v1</t>
-  </si>
-  <si>
-    <t>2nd high value of green max(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_v2</t>
-  </si>
-  <si>
-    <t>3rd high value of green max(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_v3</t>
-  </si>
-  <si>
-    <t>4th high value of green max(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_v4</t>
-  </si>
-  <si>
-    <t>5th high value of green max(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_f0</t>
-  </si>
-  <si>
-    <t>frequency of 1st high value of green mode(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_f1</t>
-  </si>
-  <si>
-    <t>frequency of 2nd high value of green mode(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_f2</t>
-  </si>
-  <si>
-    <t>frequency of 3rd high value of green mode(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_f3</t>
-  </si>
-  <si>
-    <t>frequency of 4th high value of green mode(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_f4</t>
-  </si>
-  <si>
-    <t>frequency of 5th high value of green mode(ROI(G)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_%0</t>
-  </si>
-  <si>
-    <t>% frequency 1st high value of green found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_%1</t>
-  </si>
-  <si>
-    <t>% frequency of 2nd high value of green found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_%2</t>
-  </si>
-  <si>
-    <t>% frequency of 3rd high value of green found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_%3</t>
-  </si>
-  <si>
-    <t>% frequency of 4th high value of green found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5G_%4</t>
-  </si>
-  <si>
-    <t>% frequency of 5th high value of green found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_v0</t>
-  </si>
-  <si>
-    <t>1st high value of blue max(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_v1</t>
-  </si>
-  <si>
-    <t>2nd high value of blue max(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_v2</t>
-  </si>
-  <si>
-    <t>3rd high value of blue max(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_v3</t>
-  </si>
-  <si>
-    <t>4th high value of blue max(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_v4</t>
-  </si>
-  <si>
-    <t>5th high value of blue max(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_f0</t>
-  </si>
-  <si>
-    <t>frequency of 1st high value of blue mode(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_f1</t>
-  </si>
-  <si>
-    <t>frequency of 2nd high value of blue mode(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_f2</t>
-  </si>
-  <si>
-    <t>frequency of 3rd high value of blue mode(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_f3</t>
-  </si>
-  <si>
-    <t>frequency of 4th high value of blue mode(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_f4</t>
-  </si>
-  <si>
-    <t>frequency of 5th high value of blue mode(ROI(B)) found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_%0</t>
-  </si>
-  <si>
-    <t>% frequency of 1st high value of blue found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_%1</t>
-  </si>
-  <si>
-    <t>% frequency of 2nd high value of blue found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_%2</t>
-  </si>
-  <si>
-    <t>% frequency of 3rd high value of blue found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_%3</t>
-  </si>
-  <si>
-    <t>% frequency of 4th high value of blue found in frame ith</t>
-  </si>
-  <si>
-    <t>ia5B_%4</t>
-  </si>
-  <si>
-    <t>% frequency of 5th high value of blue found in frame ith</t>
   </si>
 </sst>
 </file>
@@ -645,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -877,17 +879,17 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -971,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120">
+    <row r="8" spans="1:4" ht="105">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,21 +995,21 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="120">
+    <row r="9" spans="1:4" ht="105">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -1018,10 +1020,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1032,94 +1034,94 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1130,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1144,38 +1146,38 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -1186,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1200,10 +1202,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1214,10 +1216,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1228,24 +1230,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -1256,10 +1258,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -1270,10 +1272,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -1284,10 +1286,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1298,10 +1300,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -1312,80 +1314,80 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30">
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -1396,10 +1398,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
@@ -1410,10 +1412,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>12</v>
@@ -1424,10 +1426,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -1438,80 +1440,80 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -1522,10 +1524,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -1536,10 +1538,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -1550,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -1564,10 +1566,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -1578,10 +1580,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -1592,80 +1594,80 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30">
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30">
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30">
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30">
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30">
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -1676,10 +1678,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -1690,10 +1692,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -1704,10 +1706,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -1718,10 +1720,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
@@ -1732,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -1746,10 +1748,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -1760,10 +1762,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -1774,10 +1776,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -1788,10 +1790,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -1802,80 +1804,80 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30">
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30">
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30">
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30">
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30">
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -1886,10 +1888,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
@@ -1900,10 +1902,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
@@ -1914,10 +1916,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -1928,10 +1930,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
@@ -1942,10 +1944,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -1956,10 +1958,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
@@ -1970,10 +1972,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>9</v>
@@ -1984,10 +1986,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>9</v>
@@ -1998,10 +2000,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -2012,10 +2014,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>9</v>
@@ -2026,10 +2028,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -2040,10 +2042,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>9</v>
@@ -2054,10 +2056,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -2068,10 +2070,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>9</v>
@@ -2082,10 +2084,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
@@ -2096,10 +2098,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>9</v>
@@ -2110,10 +2112,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
@@ -2124,10 +2126,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>9</v>
@@ -2138,10 +2140,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>9</v>
@@ -2152,10 +2154,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>9</v>
@@ -2164,6 +2166,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>